--- a/biology/Écologie/Facteur_écologique/Facteur_écologique.xlsx
+++ b/biology/Écologie/Facteur_écologique/Facteur_écologique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Facteur_%C3%A9cologique</t>
+          <t>Facteur_écologique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">On appelle facteur écologique tout élément du milieu (milieu naturel ou anthropisé) susceptible d'agir directement sur tous les êtres vivants au moins pendant une phase de leur développement.
 Ces facteurs écologiques servent à décrire et analyser ou modéliser un écosystème ou une espèce ou un taxon donnée dans le temps et dans l'espace.
@@ -505,7 +517,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Facteur_%C3%A9cologique</t>
+          <t>Facteur_écologique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -523,7 +535,9 @@
           <t>Notions relatives</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En réalité, nombre des facteurs dits abiotiques sont contrôlés par des interactions biologiques et boucles de rétroactions complexes.
 Le vivant est ainsi à la fois capable d'extraire et capter des sels minéraux du sol (via les acides organiques sécrétés par les racines) et de limiter l'érosion des sols et la « fuite » de nutriments vers les écosystèmes marins.
@@ -541,7 +555,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Facteur_%C3%A9cologique</t>
+          <t>Facteur_écologique</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -559,13 +573,15 @@
           <t>Impact des facteurs écologiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ils peuvent agir de différentes façons sur la biocénose. Ils vont notamment intervenir sur :
 l'aire de répartition biogéographique des espèces : une espèce peut être éliminée par un certain facteur d'une aire biogéographique. Il y aura incompatibilité avec les exigences vitales de l'espèce ;
 la densité des populations : modification des taux de natalité-mortalité-fécondité ;
 l'apparition de modifications adaptatives : modification du comportement, du métabolisme.
-Par exemple, à partir d'observation de terrain, pour les plantes, le botaniste suisse Elias Landolt a produit une échelle (dite échelle des valeurs Landolt ou Indices Landolt)[1],[2] décrivant les besoins des plantes (de 1 à 5 ) pour chacun des facteurs suivants ;
+Par exemple, à partir d'observation de terrain, pour les plantes, le botaniste suisse Elias Landolt a produit une échelle (dite échelle des valeurs Landolt ou Indices Landolt), décrivant les besoins des plantes (de 1 à 5 ) pour chacun des facteurs suivants ;
 D'autres paramètres interviennent à long terme (exemple : présence ou absence d'un symbiote, d'un pollinisateur, mais il s'agit alors de facteurs biotiques).
 </t>
         </is>
@@ -577,7 +593,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Facteur_%C3%A9cologique</t>
+          <t>Facteur_écologique</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -597,13 +613,53 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Loi du minimum de Liebig
-Au début cette loi a été définie par rapport aux espèces végétales. Elle stipulait que la croissance des végétaux n'était possible que dans la mesure où tous les éléments indispensables pour assurer cette croissance étaient présents en quantité suffisante dans le sol.
+          <t>Loi du minimum de Liebig</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au début cette loi a été définie par rapport aux espèces végétales. Elle stipulait que la croissance des végétaux n'était possible que dans la mesure où tous les éléments indispensables pour assurer cette croissance étaient présents en quantité suffisante dans le sol.
 Ce sont donc les éléments déficitaires et rares qui vont conditionner la croissance.
 Par conséquent, le rendement de la biomasse ne dépend qu'en partie de cet élément décrit comme facteur limitant.
 Cette loi peut être étendue à l'ensemble des acteurs écologiques et à l'ensemble des organismes.
-Loi de tolérance de Shelford
-Un facteur écologique joue le rôle de facteur limitant lorsqu'il conditionne les possibilités de succès d'un organisme dans ses tentatives de colonisation d'un milieu.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Facteur_écologique</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Facteur_%C3%A9cologique</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Loi et concept rattachés aux facteurs écologiques</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Loi de tolérance de Shelford</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un facteur écologique joue le rôle de facteur limitant lorsqu'il conditionne les possibilités de succès d'un organisme dans ses tentatives de colonisation d'un milieu.
 Ce facteur peut être limitant par son absence ou par excès.
 Cette notion de facteur limitant s'applique à tous les facteurs écologiques.
 Ainsi chaque être vivant présente vis-à-vis des facteurs écologiques des limites de tolérance entre lesquelles se situe la zone de tolérance et l'optimum écologique (optimum de Shelford (en)).
